--- a/food_nutrition_small_v2.xlsx
+++ b/food_nutrition_small_v2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Shrt_Desc</t>
   </si>
@@ -103,18 +103,6 @@
   </si>
   <si>
     <t>MILK</t>
-  </si>
-  <si>
-    <t>YOGURT</t>
-  </si>
-  <si>
-    <t>MILK -DRY</t>
-  </si>
-  <si>
-    <t>EGG SUB</t>
-  </si>
-  <si>
-    <t>CHICKEN</t>
   </si>
 </sst>
 </file>
@@ -622,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +782,7 @@
       </c>
       <c r="W2" s="6">
         <f ca="1">RAND()*10</f>
-        <v>3.9663033116408029</v>
+        <v>4.3739087716424851</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -866,7 +854,7 @@
       </c>
       <c r="W3" s="6">
         <f t="shared" ref="W3:W6" ca="1" si="0">RAND()*10</f>
-        <v>2.8702933583605903</v>
+        <v>3.6864685733404077</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -938,7 +926,7 @@
       </c>
       <c r="W4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.091145783633106</v>
+        <v>3.6251237981496276</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1010,7 +998,7 @@
       </c>
       <c r="W5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4241143498091382</v>
+        <v>6.7530794816314721</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1073,286 +1061,7 @@
       </c>
       <c r="W6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7750171507919261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="C7" s="4">
-        <v>105</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.41</v>
-      </c>
-      <c r="F7" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>169</v>
-      </c>
-      <c r="J7" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>16</v>
-      </c>
-      <c r="L7" s="4">
-        <v>133</v>
-      </c>
-      <c r="M7" s="4">
-        <v>216</v>
-      </c>
-      <c r="N7" s="4">
-        <v>65</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="R7" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="V7" s="4">
-        <v>6</v>
-      </c>
-      <c r="W7" s="6">
-        <f t="shared" ref="W7" ca="1" si="1">RAND()*10</f>
-        <v>3.4306557923353309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3.96</v>
-      </c>
-      <c r="C8" s="4">
-        <v>358</v>
-      </c>
-      <c r="D8" s="3">
-        <v>35.1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.72</v>
-      </c>
-      <c r="F8" s="3">
-        <v>52.19</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>52.19</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1231</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="K8" s="3">
-        <v>117</v>
-      </c>
-      <c r="L8" s="4">
-        <v>985</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1705</v>
-      </c>
-      <c r="N8" s="4">
-        <v>549</v>
-      </c>
-      <c r="O8" s="3">
-        <v>4.41</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3.99</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4">
-        <v>18</v>
-      </c>
-      <c r="W8" s="6">
-        <f t="shared" ref="W8" ca="1" si="2">RAND()*10</f>
-        <v>1.8760889573233985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3">
-        <v>87</v>
-      </c>
-      <c r="C9" s="4">
-        <v>48</v>
-      </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>73</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.98</v>
-      </c>
-      <c r="K9" s="3">
-        <v>15</v>
-      </c>
-      <c r="L9" s="4">
-        <v>72</v>
-      </c>
-      <c r="M9" s="4">
-        <v>213</v>
-      </c>
-      <c r="N9" s="4">
-        <v>199</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1.59</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0</v>
-      </c>
-      <c r="W9" s="6">
-        <f t="shared" ref="W9" ca="1" si="3">RAND()*10</f>
-        <v>1.8489567825206088</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3">
-        <v>66.739999999999995</v>
-      </c>
-      <c r="C10" s="4">
-        <v>184</v>
-      </c>
-      <c r="D10" s="3">
-        <v>24.03</v>
-      </c>
-      <c r="E10" s="3">
-        <v>8.99</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>12</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="K10" s="3">
-        <v>23</v>
-      </c>
-      <c r="L10" s="4">
-        <v>202</v>
-      </c>
-      <c r="M10" s="4">
-        <v>264</v>
-      </c>
-      <c r="N10" s="4">
-        <v>98</v>
-      </c>
-      <c r="O10" s="3">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="P10" s="3">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="V10" s="4">
-        <v>127</v>
-      </c>
-      <c r="W10" s="6">
-        <f t="shared" ref="W10" ca="1" si="4">RAND()*10</f>
-        <v>4.342303167602692</v>
+        <v>7.8665975489100184</v>
       </c>
     </row>
   </sheetData>

--- a/food_nutrition_small_v2.xlsx
+++ b/food_nutrition_small_v2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Shrt_Desc</t>
   </si>
@@ -103,6 +103,78 @@
   </si>
   <si>
     <t>MILK</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>BUTTER_2</t>
+  </si>
+  <si>
+    <t>CHEESE_2</t>
+  </si>
+  <si>
+    <t>EGGNOG_2</t>
+  </si>
+  <si>
+    <t>SOUR DRSNG _2</t>
+  </si>
+  <si>
+    <t>MILK_2</t>
+  </si>
+  <si>
+    <t>BUTTER_3</t>
+  </si>
+  <si>
+    <t>CHEESE_3</t>
+  </si>
+  <si>
+    <t>EGGNOG_3</t>
+  </si>
+  <si>
+    <t>SOUR DRSNG _3</t>
+  </si>
+  <si>
+    <t>MILK_3</t>
+  </si>
+  <si>
+    <t>BUTTER_4</t>
+  </si>
+  <si>
+    <t>CHEESE_4</t>
+  </si>
+  <si>
+    <t>EGGNOG_4</t>
+  </si>
+  <si>
+    <t>SOUR DRSNG_4</t>
+  </si>
+  <si>
+    <t>MILK_4</t>
+  </si>
+  <si>
+    <t>BUTTER_5</t>
+  </si>
+  <si>
+    <t>CHEESE_5</t>
+  </si>
+  <si>
+    <t>EGGNOG_6</t>
+  </si>
+  <si>
+    <t>SOUR DRSNG_6</t>
+  </si>
+  <si>
+    <t>MILK_6</t>
   </si>
 </sst>
 </file>
@@ -610,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +714,7 @@
     <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,8 +784,11 @@
       <c r="W1" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="X1" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -782,10 +857,13 @@
       </c>
       <c r="W2" s="6">
         <f ca="1">RAND()*10</f>
-        <v>4.3739087716424851</v>
+        <v>2.7018094709514151</v>
+      </c>
+      <c r="X2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -853,11 +931,14 @@
         <v>75</v>
       </c>
       <c r="W3" s="6">
-        <f t="shared" ref="W3:W6" ca="1" si="0">RAND()*10</f>
-        <v>3.6864685733404077</v>
+        <f t="shared" ref="W3:W26" ca="1" si="0">RAND()*10</f>
+        <v>1.7093152550497093</v>
+      </c>
+      <c r="X3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -926,10 +1007,13 @@
       </c>
       <c r="W4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6251237981496276</v>
+        <v>2.2464659900559356</v>
+      </c>
+      <c r="X4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -998,10 +1082,13 @@
       </c>
       <c r="W5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7530794816314721</v>
+        <v>7.412274934316593</v>
+      </c>
+      <c r="X5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1061,7 +1148,1474 @@
       </c>
       <c r="W6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8665975489100184</v>
+        <v>5.9383586144497347</v>
+      </c>
+      <c r="X6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <v>15.87</v>
+      </c>
+      <c r="C7" s="4">
+        <v>717</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E7" s="3">
+        <v>81.11</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I7" s="4">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>24</v>
+      </c>
+      <c r="M7" s="4">
+        <v>24</v>
+      </c>
+      <c r="N7" s="4">
+        <v>643</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="T7" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>215</v>
+      </c>
+      <c r="W7" s="6">
+        <f ca="1">RAND()*10</f>
+        <v>1.7207946948110031</v>
+      </c>
+      <c r="X7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42.41</v>
+      </c>
+      <c r="C8" s="4">
+        <v>353</v>
+      </c>
+      <c r="D8" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>28.74</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.34</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>528</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K8" s="3">
+        <v>23</v>
+      </c>
+      <c r="L8" s="4">
+        <v>387</v>
+      </c>
+      <c r="M8" s="4">
+        <v>256</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1146</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2.66</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="V8" s="4">
+        <v>75</v>
+      </c>
+      <c r="W8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6825045742364129</v>
+      </c>
+      <c r="X8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
+        <v>82.54</v>
+      </c>
+      <c r="C9" s="4">
+        <v>88</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.55</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="I9" s="4">
+        <v>130</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>19</v>
+      </c>
+      <c r="L9" s="4">
+        <v>109</v>
+      </c>
+      <c r="M9" s="4">
+        <v>165</v>
+      </c>
+      <c r="N9" s="4">
+        <v>54</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="V9" s="4">
+        <v>59</v>
+      </c>
+      <c r="W9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8860941103285711</v>
+      </c>
+      <c r="X9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="C10" s="4">
+        <v>178</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>16.57</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="I10" s="4">
+        <v>113</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="K10" s="3">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4">
+        <v>87</v>
+      </c>
+      <c r="M10" s="4">
+        <v>162</v>
+      </c>
+      <c r="N10" s="4">
+        <v>48</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>5</v>
+      </c>
+      <c r="W10" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5157966096954532</v>
+      </c>
+      <c r="X10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3">
+        <v>87.67</v>
+      </c>
+      <c r="C11" s="4">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3.46</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.74</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>128</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K11" s="3">
+        <v>13</v>
+      </c>
+      <c r="L11" s="4">
+        <v>97</v>
+      </c>
+      <c r="M11" s="4">
+        <v>139</v>
+      </c>
+      <c r="N11" s="4">
+        <v>57</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="V11" s="4">
+        <v>2</v>
+      </c>
+      <c r="W11" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9474194920614423</v>
+      </c>
+      <c r="X11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3">
+        <v>15.87</v>
+      </c>
+      <c r="C12" s="4">
+        <v>717</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E12" s="3">
+        <v>81.11</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I12" s="4">
+        <v>24</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>24</v>
+      </c>
+      <c r="M12" s="4">
+        <v>24</v>
+      </c>
+      <c r="N12" s="4">
+        <v>643</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="T12" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>215</v>
+      </c>
+      <c r="W12" s="6">
+        <f ca="1">RAND()*10</f>
+        <v>5.6903272244384473</v>
+      </c>
+      <c r="X12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42.41</v>
+      </c>
+      <c r="C13" s="4">
+        <v>353</v>
+      </c>
+      <c r="D13" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>28.74</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2.34</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>528</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K13" s="3">
+        <v>23</v>
+      </c>
+      <c r="L13" s="4">
+        <v>387</v>
+      </c>
+      <c r="M13" s="4">
+        <v>256</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1146</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2.66</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="V13" s="4">
+        <v>75</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96173367379445707</v>
+      </c>
+      <c r="X13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3">
+        <v>82.54</v>
+      </c>
+      <c r="C14" s="4">
+        <v>88</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.55</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="I14" s="4">
+        <v>130</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>19</v>
+      </c>
+      <c r="L14" s="4">
+        <v>109</v>
+      </c>
+      <c r="M14" s="4">
+        <v>165</v>
+      </c>
+      <c r="N14" s="4">
+        <v>54</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="V14" s="4">
+        <v>59</v>
+      </c>
+      <c r="W14" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2413643091522033</v>
+      </c>
+      <c r="X14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="C15" s="4">
+        <v>178</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>16.57</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="I15" s="4">
+        <v>113</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="K15" s="3">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4">
+        <v>87</v>
+      </c>
+      <c r="M15" s="4">
+        <v>162</v>
+      </c>
+      <c r="N15" s="4">
+        <v>48</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>5</v>
+      </c>
+      <c r="W15" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92216933637835119</v>
+      </c>
+      <c r="X15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3">
+        <v>87.67</v>
+      </c>
+      <c r="C16" s="4">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3.46</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.74</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>128</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K16" s="3">
+        <v>13</v>
+      </c>
+      <c r="L16" s="4">
+        <v>97</v>
+      </c>
+      <c r="M16" s="4">
+        <v>139</v>
+      </c>
+      <c r="N16" s="4">
+        <v>57</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="V16" s="4">
+        <v>2</v>
+      </c>
+      <c r="W16" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9324651362815715</v>
+      </c>
+      <c r="X16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3">
+        <v>15.87</v>
+      </c>
+      <c r="C17" s="4">
+        <v>717</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E17" s="3">
+        <v>81.11</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I17" s="4">
+        <v>24</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>24</v>
+      </c>
+      <c r="M17" s="4">
+        <v>24</v>
+      </c>
+      <c r="N17" s="4">
+        <v>643</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="T17" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>215</v>
+      </c>
+      <c r="W17" s="6">
+        <f ca="1">RAND()*10</f>
+        <v>4.880739575113239</v>
+      </c>
+      <c r="X17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3">
+        <v>42.41</v>
+      </c>
+      <c r="C18" s="4">
+        <v>353</v>
+      </c>
+      <c r="D18" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>28.74</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.34</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>528</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K18" s="3">
+        <v>23</v>
+      </c>
+      <c r="L18" s="4">
+        <v>387</v>
+      </c>
+      <c r="M18" s="4">
+        <v>256</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1146</v>
+      </c>
+      <c r="O18" s="3">
+        <v>2.66</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="V18" s="4">
+        <v>75</v>
+      </c>
+      <c r="W18" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8467957155157111</v>
+      </c>
+      <c r="X18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3">
+        <v>82.54</v>
+      </c>
+      <c r="C19" s="4">
+        <v>88</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.55</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F19" s="3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="I19" s="4">
+        <v>130</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>19</v>
+      </c>
+      <c r="L19" s="4">
+        <v>109</v>
+      </c>
+      <c r="M19" s="4">
+        <v>165</v>
+      </c>
+      <c r="N19" s="4">
+        <v>54</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="V19" s="4">
+        <v>59</v>
+      </c>
+      <c r="W19" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7717478844656043</v>
+      </c>
+      <c r="X19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="C20" s="4">
+        <v>178</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="E20" s="3">
+        <v>16.57</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="I20" s="4">
+        <v>113</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="K20" s="3">
+        <v>10</v>
+      </c>
+      <c r="L20" s="4">
+        <v>87</v>
+      </c>
+      <c r="M20" s="4">
+        <v>162</v>
+      </c>
+      <c r="N20" s="4">
+        <v>48</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>5</v>
+      </c>
+      <c r="W20" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4739566588439743</v>
+      </c>
+      <c r="X20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3">
+        <v>87.67</v>
+      </c>
+      <c r="C21" s="4">
+        <v>63</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3.46</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.74</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>128</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K21" s="3">
+        <v>13</v>
+      </c>
+      <c r="L21" s="4">
+        <v>97</v>
+      </c>
+      <c r="M21" s="4">
+        <v>139</v>
+      </c>
+      <c r="N21" s="4">
+        <v>57</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="V21" s="4">
+        <v>2</v>
+      </c>
+      <c r="W21" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.0782178426940394</v>
+      </c>
+      <c r="X21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3">
+        <v>15.87</v>
+      </c>
+      <c r="C22" s="4">
+        <v>717</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E22" s="3">
+        <v>81.11</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I22" s="4">
+        <v>24</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2</v>
+      </c>
+      <c r="L22" s="4">
+        <v>24</v>
+      </c>
+      <c r="M22" s="4">
+        <v>24</v>
+      </c>
+      <c r="N22" s="4">
+        <v>643</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="T22" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>215</v>
+      </c>
+      <c r="W22" s="6">
+        <f ca="1">RAND()*10</f>
+        <v>0.14447807285860259</v>
+      </c>
+      <c r="X22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3">
+        <v>42.41</v>
+      </c>
+      <c r="C23" s="4">
+        <v>353</v>
+      </c>
+      <c r="D23" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>28.74</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2.34</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>528</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K23" s="3">
+        <v>23</v>
+      </c>
+      <c r="L23" s="4">
+        <v>387</v>
+      </c>
+      <c r="M23" s="4">
+        <v>256</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1146</v>
+      </c>
+      <c r="O23" s="3">
+        <v>2.66</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="V23" s="4">
+        <v>75</v>
+      </c>
+      <c r="W23" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0821480276517237</v>
+      </c>
+      <c r="X23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3">
+        <v>82.54</v>
+      </c>
+      <c r="C24" s="4">
+        <v>88</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4.55</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F24" s="3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="I24" s="4">
+        <v>130</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="3">
+        <v>19</v>
+      </c>
+      <c r="L24" s="4">
+        <v>109</v>
+      </c>
+      <c r="M24" s="4">
+        <v>165</v>
+      </c>
+      <c r="N24" s="4">
+        <v>54</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="V24" s="4">
+        <v>59</v>
+      </c>
+      <c r="W24" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6920826722354603</v>
+      </c>
+      <c r="X24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="C25" s="4">
+        <v>178</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="E25" s="3">
+        <v>16.57</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="I25" s="4">
+        <v>113</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="K25" s="3">
+        <v>10</v>
+      </c>
+      <c r="L25" s="4">
+        <v>87</v>
+      </c>
+      <c r="M25" s="4">
+        <v>162</v>
+      </c>
+      <c r="N25" s="4">
+        <v>48</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>5</v>
+      </c>
+      <c r="W25" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1533413874482346</v>
+      </c>
+      <c r="X25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3">
+        <v>87.67</v>
+      </c>
+      <c r="C26" s="4">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3.46</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4.74</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>128</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K26" s="3">
+        <v>13</v>
+      </c>
+      <c r="L26" s="4">
+        <v>97</v>
+      </c>
+      <c r="M26" s="4">
+        <v>139</v>
+      </c>
+      <c r="N26" s="4">
+        <v>57</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="V26" s="4">
+        <v>2</v>
+      </c>
+      <c r="W26" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3750802374605513</v>
+      </c>
+      <c r="X26" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
